--- a/data/trans_dic/P19E_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4059794878143779</v>
+        <v>0.4042183018985602</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2834492097011401</v>
+        <v>0.2791873676377944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2868044415074829</v>
+        <v>0.2834255514493473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.20923377250418</v>
+        <v>0.2103389416486434</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3498807200734049</v>
+        <v>0.3479983665515883</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2506314333413409</v>
+        <v>0.2482057541840919</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4668213751973166</v>
+        <v>0.4663306450140115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3750264481358005</v>
+        <v>0.3709023360303178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.34144889775715</v>
+        <v>0.3402430542155374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2686821524605043</v>
+        <v>0.269776782252398</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3902450649760248</v>
+        <v>0.3893139253297708</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3031414363327479</v>
+        <v>0.3059628946347847</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.3463122551847392</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2577800496768123</v>
+        <v>0.2577800496768122</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2212958568615835</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3112540787618795</v>
+        <v>0.3176321279912293</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2281948322957384</v>
+        <v>0.2318670027733716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1937734739461662</v>
+        <v>0.1963066645788505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1710905089894796</v>
+        <v>0.1732628518524408</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2611368761711148</v>
+        <v>0.2613831195210838</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2066087172947871</v>
+        <v>0.2032174670781464</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3804428753025103</v>
+        <v>0.3826422492877775</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2885292564385811</v>
+        <v>0.2928749569527004</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2499962650147157</v>
+        <v>0.2491882382775755</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.208833497278051</v>
+        <v>0.2115144938854826</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3024975037846498</v>
+        <v>0.3013721997838817</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2390642127818368</v>
+        <v>0.2388872416846594</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2447134372014671</v>
+        <v>0.2441067475829472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2490784946372235</v>
+        <v>0.2537815342236909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1782813486886348</v>
+        <v>0.1796471693315245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1455280942475869</v>
+        <v>0.144722013600987</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2183635826745791</v>
+        <v>0.2216348032861533</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2052040901783484</v>
+        <v>0.203791198650449</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3061426061936186</v>
+        <v>0.3108022743687106</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3079947714319691</v>
+        <v>0.3108097703394734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2388872716873312</v>
+        <v>0.2407576604690649</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1829740990390346</v>
+        <v>0.1843261774405957</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2636923260983178</v>
+        <v>0.2658426888677908</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2378922844499128</v>
+        <v>0.2404401853984196</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.1486456530810282</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09683362597419899</v>
+        <v>0.09683362597419898</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2189537646140692</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.143010081318927</v>
+        <v>0.1430100813189269</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2446751222834794</v>
+        <v>0.2490980167349808</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1603134503595635</v>
+        <v>0.1589663914355046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1171364115974073</v>
+        <v>0.118446098486126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07924969396593791</v>
+        <v>0.08153477010717251</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.192300587874476</v>
+        <v>0.1914748910593327</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1292773237717883</v>
+        <v>0.1273732028865417</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3313746202966246</v>
+        <v>0.3319880605270705</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.21316598550415</v>
+        <v>0.2132971836338955</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1874851871740353</v>
+        <v>0.1849020351665299</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1158628567634573</v>
+        <v>0.1173994207603805</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2463221057813827</v>
+        <v>0.2471193388895495</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1596609046506268</v>
+        <v>0.159379207956081</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.2398395034116153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.16768086549828</v>
+        <v>0.1676808654982799</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2934562654446464</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3320507688486076</v>
+        <v>0.3312695361618194</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2376671261420087</v>
+        <v>0.2399237798727602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2260115239979701</v>
+        <v>0.225294504433308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1566755718239903</v>
+        <v>0.1576934797729896</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2821523490395111</v>
+        <v>0.282880056022776</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2013054305767875</v>
+        <v>0.2010760683803973</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3662166342632917</v>
+        <v>0.3669363559559841</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2678455789663957</v>
+        <v>0.2720468023464166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2570785358981214</v>
+        <v>0.2537972566569954</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1775071106069742</v>
+        <v>0.1790113526623461</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3052564235601585</v>
+        <v>0.3045922108333535</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2190770004720866</v>
+        <v>0.2193083184069744</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>440596</v>
+        <v>438684</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140327</v>
+        <v>138217</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>351274</v>
+        <v>347136</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>128741</v>
+        <v>129421</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>808243</v>
+        <v>803895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>278293</v>
+        <v>275599</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>506625</v>
+        <v>506093</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>185664</v>
+        <v>183622</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>418202</v>
+        <v>416725</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>165320</v>
+        <v>165993</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>901487</v>
+        <v>899336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>336598</v>
+        <v>339731</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>276532</v>
+        <v>282198</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>218073</v>
+        <v>221582</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>189342</v>
+        <v>191817</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>190107</v>
+        <v>192521</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>487170</v>
+        <v>487629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>427018</v>
+        <v>420009</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>338002</v>
+        <v>339956</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>275731</v>
+        <v>279884</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>244279</v>
+        <v>243490</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>232046</v>
+        <v>235025</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>564331</v>
+        <v>562232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>494096</v>
+        <v>493731</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>196735</v>
+        <v>196247</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>259692</v>
+        <v>264595</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>134173</v>
+        <v>135201</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>151877</v>
+        <v>151036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>339890</v>
+        <v>344982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>428105</v>
+        <v>425157</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>246121</v>
+        <v>249867</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>321118</v>
+        <v>324053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>179784</v>
+        <v>181192</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>190957</v>
+        <v>192368</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>410446</v>
+        <v>413793</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>496300</v>
+        <v>501616</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>120882</v>
+        <v>123067</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>156079</v>
+        <v>154767</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56622</v>
+        <v>57255</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71831</v>
+        <v>73902</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>187961</v>
+        <v>187154</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>243038</v>
+        <v>239458</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>163716</v>
+        <v>164019</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>207535</v>
+        <v>207663</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90627</v>
+        <v>89379</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>105016</v>
+        <v>106409</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>240764</v>
+        <v>241543</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>300158</v>
+        <v>299628</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1086371</v>
+        <v>1083815</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>823970</v>
+        <v>831793</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>777003</v>
+        <v>774538</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>576012</v>
+        <v>579755</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1893128</v>
+        <v>1898010</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1438000</v>
+        <v>1436361</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1198152</v>
+        <v>1200506</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>928595</v>
+        <v>943161</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>883808</v>
+        <v>872528</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>652599</v>
+        <v>658129</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2048147</v>
+        <v>2043690</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1564949</v>
+        <v>1566601</v>
       </c>
     </row>
     <row r="24">
